--- a/Тесты + покрытие.xlsx
+++ b/Тесты + покрытие.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\QA_Testing\UnitTestingLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135A48B3-7AD0-4E68-A3BB-B71E62406BC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED2B2DC-E1B8-436A-BC97-28E7886D61A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7793379-A078-4A45-8C0A-BB5923CE50AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Удаление из массива" sheetId="1" r:id="rId1"/>
+    <sheet name="Квадратное уравнение" sheetId="2" r:id="rId2"/>
+    <sheet name="Ферзи" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
   <si>
     <t>Критерий</t>
   </si>
@@ -87,9 +89,6 @@
     <t>Массив из элементов разных типов</t>
   </si>
   <si>
-    <t>Сообщение о пустом массиве</t>
-  </si>
-  <si>
     <t>К3.1</t>
   </si>
   <si>
@@ -174,12 +173,6 @@
     <t>Некорректно задан массив</t>
   </si>
   <si>
-    <t>К3.4</t>
-  </si>
-  <si>
-    <t>Сообщение о некорректно заданном массиве</t>
-  </si>
-  <si>
     <t xml:space="preserve">"1.2        - 23 125; 285," </t>
   </si>
   <si>
@@ -202,6 +195,99 @@
   </si>
   <si>
     <t>"Массив задан некорректно, операция невозможна"</t>
+  </si>
+  <si>
+    <t>1. Тестирование классов входных данных</t>
+  </si>
+  <si>
+    <t>2. Тестирование классов выходных данных</t>
+  </si>
+  <si>
+    <t>a = 0 &amp;&amp; b != 0 &amp;&amp; c != 0</t>
+  </si>
+  <si>
+    <t>b = 0 &amp;&amp; a != 0 &amp;&amp; c != 0</t>
+  </si>
+  <si>
+    <t>c = 0 &amp;&amp; a != 0 &amp;&amp; b != 0</t>
+  </si>
+  <si>
+    <t>a = 0 &amp;&amp; b = 0 &amp;&amp; c != 0</t>
+  </si>
+  <si>
+    <t>a = 0 &amp;&amp; c = 0 &amp;&amp; b != 0</t>
+  </si>
+  <si>
+    <t>b = 0 &amp;&amp; c = 0 &amp;&amp; a != 0</t>
+  </si>
+  <si>
+    <t>D &lt; 0</t>
+  </si>
+  <si>
+    <t>D &gt; 0</t>
+  </si>
+  <si>
+    <t>D = 0</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Массив с пустым элементом в середине</t>
+  </si>
+  <si>
+    <t>Массив с пустым элементом в начале</t>
+  </si>
+  <si>
+    <t>Массив с пустым элементом в конце</t>
+  </si>
+  <si>
+    <t>К2.4</t>
+  </si>
+  <si>
+    <t>К2.5</t>
+  </si>
+  <si>
+    <t>Т5</t>
+  </si>
+  <si>
+    <t>Т6</t>
+  </si>
+  <si>
+    <t>Т7</t>
+  </si>
+  <si>
+    <t>"aab,1235,,213.123,b^2-4ac"</t>
+  </si>
+  <si>
+    <t>К1.1, К1.2, К1.3, К2.5, К3.3, К4.3</t>
+  </si>
+  <si>
+    <t>К1.1, К1.2, К1.3, К2.3, К2.5, К3.3, К4.3</t>
+  </si>
+  <si>
+    <t>К1.1, К1.2, К1.3, К2.4, К2.5, К3.3, К4.4</t>
+  </si>
+  <si>
+    <t>"1,2,3,4,5,-10,-5,2,-150"</t>
+  </si>
+  <si>
+    <t>["1.2        - 23 125; 285"]</t>
+  </si>
+  <si>
+    <t>[" 1.2        - 23 125; 285"]</t>
+  </si>
+  <si>
+    <t>["aab", "", "b^2-4ac"]</t>
+  </si>
+  <si>
+    <t>["1", "3", "5", "-5", "150"]</t>
+  </si>
+  <si>
+    <t>К1.1, К1.2, К1.3, К2.2, К2.5, К3.3, К4.5</t>
+  </si>
+  <si>
+    <t>К1.1, К1.2, К1.3, К2.1, К2.5, К3.3, К4.6</t>
   </si>
 </sst>
 </file>
@@ -247,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -678,17 +764,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -762,32 +837,124 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -848,9 +1015,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,49 +1060,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,7 +1096,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,393 +1503,927 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4870563-F5C5-4363-BEBE-41DCF67B967E}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="5" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="63"/>
+      <c r="L1" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="39">
+        <v>1</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="66"/>
+      <c r="L3" s="40">
+        <v>2</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="40">
+        <v>3</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="40">
+        <v>4</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="40">
+        <v>5</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="63"/>
+      <c r="L7" s="40">
+        <v>6</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="41">
+        <v>7</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="43"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="43"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="I1" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="47">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="I3" s="48">
-        <v>2</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="48">
-        <v>3</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="I5" s="48">
-        <v>4</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="I6" s="48">
-        <v>5</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="I7" s="48">
-        <v>6</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="I8" s="49">
-        <v>7</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="24"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:I17"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4FC075-609D-4C98-A7F1-AFDF364A1F6A}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="31" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="9:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="39">
+        <v>1</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I34" s="40">
+        <v>2</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="40">
+        <v>3</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I36" s="40">
+        <v>4</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I37" s="40">
+        <v>5</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="9:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I38" s="40">
+        <v>6</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="9:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="41">
+        <v>7</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50B0E9B-B2D2-4F5D-8E78-76BD21E0D953}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>